--- a/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B43" s="65">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B79" s="65">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
